--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aaron\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77D5AF1-C170-4680-882E-7A23E74636F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8ED752-0382-440F-B2BD-83FD9D40AD29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="435" windowWidth="22740" windowHeight="15555" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="435" windowWidth="22740" windowHeight="15555" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="95">
   <si>
     <t>Story Type</t>
   </si>
@@ -457,6 +457,25 @@
   </si>
   <si>
     <t>Create retreval method to get data our of the database</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:X
+Mayur:
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:X
+Mayur:
+Riggs:
+Carolyn:X</t>
+  </si>
+  <si>
+    <t>If the developers contribution is empty then they did not work on that story, otherwise, value indicates hours worked</t>
   </si>
 </sst>
 </file>
@@ -671,21 +690,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -694,9 +716,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1072,8 +1091,8 @@
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1364,8 +1383,8 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1811,14 +1830,14 @@
     </row>
     <row r="14" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -1826,11 +1845,11 @@
     </row>
     <row r="15" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -1841,11 +1860,11 @@
     </row>
     <row r="16" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -1856,11 +1875,11 @@
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -1873,11 +1892,11 @@
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -1888,11 +1907,11 @@
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -1905,11 +1924,11 @@
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -1920,11 +1939,11 @@
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -1935,11 +1954,11 @@
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -1950,11 +1969,11 @@
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -1967,18 +1986,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A13:XFD13"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
@@ -2252,22 +2271,22 @@
     </row>
     <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="18" t="s">
         <v>47</v>
       </c>
@@ -2280,11 +2299,11 @@
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="18" t="s">
         <v>47</v>
       </c>
@@ -2297,11 +2316,11 @@
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="18" t="s">
         <v>49</v>
       </c>
@@ -2314,11 +2333,11 @@
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="18" t="s">
         <v>47</v>
       </c>
@@ -2331,11 +2350,11 @@
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="18" t="s">
         <v>56</v>
       </c>
@@ -2348,11 +2367,11 @@
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="18" t="s">
         <v>49</v>
       </c>
@@ -2365,11 +2384,11 @@
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="18" t="s">
         <v>49</v>
       </c>
@@ -2382,11 +2401,11 @@
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="18" t="s">
         <v>49</v>
       </c>
@@ -2399,11 +2418,11 @@
     </row>
     <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="18" t="s">
         <v>48</v>
       </c>
@@ -2424,6 +2443,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2431,11 +2455,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
@@ -2449,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD0DEDB-7184-4D60-B99A-9BCC4CFD825C}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2467,7 +2486,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2483,7 +2502,7 @@
       <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -2711,13 +2730,17 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="13">
+        <v>21</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="30"/>
+      <c r="C14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="16" t="s">
         <v>4</v>
       </c>
@@ -2725,65 +2748,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>4</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>4</v>
@@ -2794,30 +2803,30 @@
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>4</v>
@@ -2828,13 +2837,13 @@
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>4</v>
@@ -2845,11 +2854,11 @@
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="18" t="s">
         <v>49</v>
       </c>
@@ -2862,11 +2871,11 @@
     </row>
     <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="18" t="s">
         <v>49</v>
       </c>
@@ -2879,28 +2888,44 @@
     </row>
     <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="18" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="16" t="s">
+      <c r="F26" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="16" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A15:XFD15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
@@ -2908,6 +2933,7 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
@@ -2915,6 +2941,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2922,8 +2949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB03CE47-C0CE-41ED-B770-BE9613398E6F}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E11"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3203,39 +3230,39 @@
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="18" t="s">
         <v>47</v>
       </c>
@@ -3248,16 +3275,16 @@
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>4</v>
@@ -3265,11 +3292,11 @@
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="18" t="s">
         <v>47</v>
       </c>
@@ -3282,11 +3309,11 @@
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="18" t="s">
         <v>56</v>
       </c>
@@ -3299,11 +3326,11 @@
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="18" t="s">
         <v>49</v>
       </c>
@@ -3316,11 +3343,11 @@
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="18" t="s">
         <v>49</v>
       </c>
@@ -3333,16 +3360,16 @@
     </row>
     <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>4</v>
@@ -3350,11 +3377,11 @@
     </row>
     <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="18" t="s">
         <v>48</v>
       </c>
@@ -3367,11 +3394,11 @@
     </row>
     <row r="26" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="18" t="s">
         <v>49</v>
       </c>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aaron\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8ED752-0382-440F-B2BD-83FD9D40AD29}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A994CE6-A8CC-4C0B-ABFE-BA39E7AC7A33}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="435" windowWidth="22740" windowHeight="15555" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="432" windowWidth="22740" windowHeight="15552" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="SprintBacklog4" sheetId="5" r:id="rId4"/>
     <sheet name="SprintBacklog5" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="107">
   <si>
     <t>Story Type</t>
   </si>
@@ -476,6 +476,76 @@
   </si>
   <si>
     <t>If the developers contribution is empty then they did not work on that story, otherwise, value indicates hours worked</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:X
+Mayur:X
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Create and update fuction to return sales for an specific day and show results on the App.</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur:5
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Create and update function to update database.
+Create screen for updating sales data.</t>
+  </si>
+  <si>
+    <t>Cade:1
+Andre:
+Turner:
+Mayur:4
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur:4
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Calculate a weighted average for gross sales.</t>
+  </si>
+  <si>
+    <t>Fill database for the front end to retreve data simply.
+Create screen to generate sale predictions.</t>
+  </si>
+  <si>
+    <t>Cade:1
+Andre:
+Turner:
+Mayur:5
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Create method to add new account to the database with password encrypted.
+Create Screen that will handle account creation.</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur:3
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Create function that will check username and password against database.
+Create log in screen.</t>
   </si>
 </sst>
 </file>
@@ -699,14 +769,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1079,24 +1149,24 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1122,7 +1192,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>10</v>
       </c>
@@ -1145,7 +1215,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>11</v>
       </c>
@@ -1168,7 +1238,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>12</v>
       </c>
@@ -1191,7 +1261,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>13</v>
       </c>
@@ -1214,7 +1284,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>14</v>
       </c>
@@ -1237,7 +1307,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>15</v>
       </c>
@@ -1262,7 +1332,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>16</v>
       </c>
@@ -1287,7 +1357,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>17</v>
       </c>
@@ -1312,7 +1382,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>18</v>
       </c>
@@ -1335,7 +1405,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>19</v>
       </c>
@@ -1358,7 +1428,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>20</v>
       </c>
@@ -1383,12 +1453,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="9" t="s">
         <v>31</v>
@@ -1399,7 +1469,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
@@ -1416,7 +1486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
         <v>33</v>
@@ -1433,7 +1503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -1450,7 +1520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
         <v>38</v>
@@ -1467,7 +1537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
         <v>39</v>
@@ -1484,7 +1554,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
         <v>40</v>
@@ -1501,7 +1571,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1515,10 +1585,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
     </row>
   </sheetData>
@@ -1543,19 +1613,19 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="7" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="6" max="7" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:11" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
@@ -1581,7 +1651,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>10</v>
       </c>
@@ -1606,7 +1676,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>11</v>
       </c>
@@ -1631,7 +1701,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>12</v>
       </c>
@@ -1654,7 +1724,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>13</v>
       </c>
@@ -1677,7 +1747,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>14</v>
       </c>
@@ -1700,7 +1770,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>15</v>
       </c>
@@ -1725,7 +1795,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>16</v>
       </c>
@@ -1750,7 +1820,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>17</v>
       </c>
@@ -1775,7 +1845,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>18</v>
       </c>
@@ -1798,7 +1868,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>20</v>
       </c>
@@ -1823,12 +1893,12 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:11" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="38" t="s">
         <v>31</v>
@@ -1843,13 +1913,13 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -1858,13 +1928,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -1873,13 +1943,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -1890,13 +1960,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -1905,13 +1975,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -1922,13 +1992,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -1937,13 +2007,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -1952,13 +2022,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -1967,13 +2037,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -1986,18 +2056,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
@@ -2017,22 +2087,22 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2055,7 +2125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2074,7 +2144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2093,7 +2163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2112,7 +2182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2131,7 +2201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2150,7 +2220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2169,7 +2239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2188,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2207,7 +2277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2226,7 +2296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2245,7 +2315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2264,23 +2334,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="38" t="s">
         <v>32</v>
@@ -2297,7 +2367,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>33</v>
@@ -2314,7 +2384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>61</v>
@@ -2331,7 +2401,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>38</v>
@@ -2348,7 +2418,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>39</v>
@@ -2365,7 +2435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>35</v>
@@ -2382,7 +2452,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>37</v>
@@ -2399,7 +2469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>36</v>
@@ -2416,7 +2486,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>40</v>
@@ -2433,21 +2503,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2455,6 +2520,11 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
@@ -2470,26 +2540,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD0DEDB-7184-4D60-B99A-9BCC4CFD825C}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="3" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2512,7 +2582,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2524,7 +2594,7 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="16" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>52</v>
@@ -2533,7 +2603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2545,16 +2615,16 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="16" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2566,16 +2636,16 @@
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="16" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2594,7 +2664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2613,7 +2683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2624,15 +2694,17 @@
         <v>6</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="F8" s="16" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2643,15 +2715,17 @@
         <v>8</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="F9" s="16" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2662,15 +2736,17 @@
         <v>6</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="18"/>
+      <c r="E10" s="18" t="s">
+        <v>106</v>
+      </c>
       <c r="F10" s="16" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2691,7 +2767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2710,7 +2786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2729,7 +2805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>21</v>
       </c>
@@ -2748,26 +2824,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>32</v>
@@ -2778,13 +2854,13 @@
         <v>47</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>33</v>
@@ -2801,7 +2877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>61</v>
@@ -2818,7 +2894,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>38</v>
@@ -2835,7 +2911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -2852,7 +2928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>35</v>
@@ -2869,7 +2945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>37</v>
@@ -2880,13 +2956,13 @@
         <v>49</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>36</v>
@@ -2903,7 +2979,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>40</v>
@@ -2914,10 +2990,10 @@
         <v>48</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2953,22 +3029,22 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2991,7 +3067,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -3012,7 +3088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -3033,7 +3109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -3054,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -3073,7 +3149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -3092,7 +3168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -3111,7 +3187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -3130,7 +3206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -3149,7 +3225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -3170,7 +3246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -3189,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -3208,7 +3284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
         <v>84</v>
@@ -3223,23 +3299,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>32</v>
@@ -3256,7 +3332,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>33</v>
@@ -3273,7 +3349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>61</v>
@@ -3290,7 +3366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>38</v>
@@ -3307,7 +3383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>39</v>
@@ -3324,7 +3400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>35</v>
@@ -3341,7 +3417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>37</v>
@@ -3358,7 +3434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>36</v>
@@ -3375,7 +3451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>40</v>
@@ -3392,7 +3468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>87</v>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A994CE6-A8CC-4C0B-ABFE-BA39E7AC7A33}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04279574-1553-4E3C-AE27-3435EAA1EBF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="432" windowWidth="22740" windowHeight="15552" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="432" windowWidth="22740" windowHeight="15552" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="114">
   <si>
     <t>Story Type</t>
   </si>
@@ -524,28 +524,79 @@
 Create screen to generate sale predictions.</t>
   </si>
   <si>
-    <t>Cade:1
+    <t>Create method to add new account to the database with password encrypted.
+Create Screen that will handle account creation.</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur:3
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Create function that will check username and password against database.
+Create log in screen.</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur:X
+Riggs:
+Carolyn:X</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur:
+Riggs:
+Carolyn:X</t>
+  </si>
+  <si>
+    <t>architecture design and design patterns</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur:
+Riggs:
+Carolyn: X</t>
+  </si>
+  <si>
+    <t>Cade:
 Andre:
 Turner:
 Mayur:5
 Riggs:
-Carolyn:</t>
-  </si>
-  <si>
-    <t>Create method to add new account to the database with password encrypted.
-Create Screen that will handle account creation.</t>
+Carolyn:1</t>
+  </si>
+  <si>
+    <t>Cade:1
+Andre:
+Turner:
+Mayur:5
+Riggs:
+Carolyn:1</t>
+  </si>
+  <si>
+    <t>Cade:1
+Andre:
+Turner:
+Mayur:
+Riggs:
+Carolyn:1</t>
   </si>
   <si>
     <t>Cade:
 Andre:
 Turner:
-Mayur:3
-Riggs:
-Carolyn:</t>
-  </si>
-  <si>
-    <t>Create function that will check username and password against database.
-Create log in screen.</t>
+Mayur:
+Riggs:
+Carolyn:1</t>
   </si>
 </sst>
 </file>
@@ -769,14 +820,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1620,8 +1671,8 @@
     <col min="6" max="7" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:11" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1893,8 +1944,8 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:11" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1915,11 +1966,11 @@
     </row>
     <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -1930,11 +1981,11 @@
     </row>
     <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -1945,11 +1996,11 @@
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -1962,11 +2013,11 @@
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -1977,11 +2028,11 @@
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -1994,11 +2045,11 @@
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -2009,11 +2060,11 @@
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -2024,11 +2075,11 @@
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -2039,11 +2090,11 @@
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -2056,18 +2107,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A13:XFD13"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
@@ -2097,8 +2148,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2334,21 +2385,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
@@ -2513,6 +2564,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2520,11 +2576,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
@@ -2538,10 +2589,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD0DEDB-7184-4D60-B99A-9BCC4CFD825C}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2554,8 +2605,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2618,10 +2669,10 @@
         <v>102</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -2716,13 +2767,13 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>105</v>
-      </c>
       <c r="G9" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -2737,13 +2788,13 @@
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -2827,21 +2878,21 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
@@ -2939,10 +2990,10 @@
         <v>49</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -2990,14 +3041,34 @@
         <v>48</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>68</v>
-      </c>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="B27" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A16:XFD16"/>
@@ -3023,10 +3094,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB03CE47-C0CE-41ED-B770-BE9613398E6F}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3039,8 +3110,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3103,10 +3174,10 @@
         <v>89</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -3299,21 +3370,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
@@ -3363,7 +3434,7 @@
         <v>93</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -3411,10 +3482,10 @@
         <v>49</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -3485,8 +3556,25 @@
         <v>43</v>
       </c>
     </row>
+    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="B27" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="A1:XFD1"/>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carolyn\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04279574-1553-4E3C-AE27-3435EAA1EBF8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF64DAEB-7925-469D-804D-5C3E408E1286}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="936" yWindow="432" windowWidth="22740" windowHeight="15552" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="113">
   <si>
     <t>Story Type</t>
   </si>
@@ -447,18 +447,6 @@
     <t>Usability Study</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculate a weighted average for gross sales </t>
-  </si>
-  <si>
-    <t>Fill database for the front end to retreve data simply</t>
-  </si>
-  <si>
-    <t>Create and update function to update database</t>
-  </si>
-  <si>
-    <t>Create retreval method to get data our of the database</t>
-  </si>
-  <si>
     <t>Cade:
 Andre:
 Turner:X
@@ -586,7 +574,7 @@
     <t>Cade:1
 Andre:
 Turner:
-Mayur:
+Mayur:2
 Riggs:
 Carolyn:1</t>
   </si>
@@ -594,9 +582,28 @@
     <t>Cade:
 Andre:
 Turner:
-Mayur:
+Mayur:2
 Riggs:
 Carolyn:1</t>
+  </si>
+  <si>
+    <t>Cade:1
+Andre:
+Turner:
+Mayur:2
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:
+Mayur:2
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Create retrieval method to get data our of the database</t>
   </si>
 </sst>
 </file>
@@ -820,14 +827,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1671,8 +1678,8 @@
     <col min="6" max="7" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:11" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1944,8 +1951,8 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:11" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1966,11 +1973,11 @@
     </row>
     <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -1981,11 +1988,11 @@
     </row>
     <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -1996,11 +2003,11 @@
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -2013,11 +2020,11 @@
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -2028,11 +2035,11 @@
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -2045,11 +2052,11 @@
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -2060,11 +2067,11 @@
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -2075,11 +2082,11 @@
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -2090,11 +2097,11 @@
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -2107,18 +2114,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
@@ -2148,8 +2155,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2385,21 +2392,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
@@ -2564,11 +2571,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2576,6 +2578,11 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
@@ -2591,8 +2598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD0DEDB-7184-4D60-B99A-9BCC4CFD825C}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2605,9 +2612,9 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>94</v>
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2645,7 +2652,7 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>52</v>
@@ -2666,13 +2673,13 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -2687,13 +2694,13 @@
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -2746,13 +2753,13 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -2767,13 +2774,13 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -2788,13 +2795,13 @@
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -2809,7 +2816,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>52</v>
@@ -2878,21 +2885,21 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
@@ -2905,10 +2912,10 @@
         <v>47</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -2939,10 +2946,10 @@
         <v>49</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -2990,10 +2997,10 @@
         <v>49</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -3027,7 +3034,7 @@
         <v>54</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -3041,15 +3048,15 @@
         <v>48</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="40"/>
@@ -3057,10 +3064,10 @@
         <v>49</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3096,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB03CE47-C0CE-41ED-B770-BE9613398E6F}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3110,8 +3117,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3150,7 +3157,7 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="16" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>74</v>
@@ -3171,13 +3178,13 @@
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="16" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -3192,13 +3199,13 @@
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -3250,12 +3257,14 @@
         <v>6</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="F8" s="16" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -3269,12 +3278,14 @@
         <v>8</v>
       </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="E9" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="F9" s="16" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -3288,12 +3299,14 @@
         <v>6</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="18"/>
+      <c r="E10" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="F10" s="16" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -3308,7 +3321,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>74</v>
@@ -3328,7 +3341,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="16" t="s">
         <v>4</v>
       </c>
@@ -3362,7 +3375,7 @@
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
-      <c r="E14" s="30"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="16" t="s">
         <v>86</v>
       </c>
@@ -3370,21 +3383,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
@@ -3397,10 +3410,10 @@
         <v>47</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -3431,10 +3444,10 @@
         <v>49</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -3482,10 +3495,10 @@
         <v>49</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
@@ -3516,7 +3529,7 @@
         <v>49</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>4</v>
@@ -3533,10 +3546,10 @@
         <v>48</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
@@ -3558,7 +3571,7 @@
     </row>
     <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="40"/>
@@ -3566,10 +3579,10 @@
         <v>49</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aaron/Documents/GitHub/Software2project/documents/Deliverable_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF64DAEB-7925-469D-804D-5C3E408E1286}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="432" windowWidth="22740" windowHeight="15552" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="440" windowWidth="22740" windowHeight="15560" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="SprintBacklog4" sheetId="5" r:id="rId4"/>
     <sheet name="SprintBacklog5" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="116">
   <si>
     <t>Story Type</t>
   </si>
@@ -531,7 +530,7 @@
     <t>Cade:
 Andre:
 Turner:
-Mayur:X
+Mayur:
 Riggs:
 Carolyn:X</t>
   </si>
@@ -541,17 +540,6 @@
 Turner:
 Mayur:
 Riggs:
-Carolyn:X</t>
-  </si>
-  <si>
-    <t>architecture design and design patterns</t>
-  </si>
-  <si>
-    <t>Cade:
-Andre:
-Turner:
-Mayur:
-Riggs:
 Carolyn: X</t>
   </si>
   <si>
@@ -604,12 +592,42 @@
   </si>
   <si>
     <t>Create retrieval method to get data our of the database</t>
+  </si>
+  <si>
+    <t>Create and update function to return sales for an specific day and show results on the App.</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:2
+Mayur:2
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:X
+Mayur:
+Riggs:X
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Architecture Design and Design Patterns</t>
+  </si>
+  <si>
+    <t>Cade:
+Andre:
+Turner:X
+Mayur:
+Riggs:
+Carolyn: X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -674,29 +692,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,23 +722,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,14 +845,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1200,31 +1218,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1250,7 +1268,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>10</v>
       </c>
@@ -1273,7 +1291,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>11</v>
       </c>
@@ -1296,7 +1314,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>12</v>
       </c>
@@ -1319,7 +1337,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>13</v>
       </c>
@@ -1342,7 +1360,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>14</v>
       </c>
@@ -1365,7 +1383,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>15</v>
       </c>
@@ -1390,7 +1408,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>16</v>
       </c>
@@ -1415,7 +1433,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>17</v>
       </c>
@@ -1440,7 +1458,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>18</v>
       </c>
@@ -1463,7 +1481,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>19</v>
       </c>
@@ -1486,7 +1504,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>20</v>
       </c>
@@ -1511,12 +1529,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="9" t="s">
         <v>31</v>
@@ -1527,7 +1545,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="78" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
@@ -1544,7 +1562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="78" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
         <v>33</v>
@@ -1561,7 +1579,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="78" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -1578,7 +1596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="78" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
         <v>38</v>
@@ -1595,7 +1613,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="78" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
         <v>39</v>
@@ -1612,7 +1630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="78" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
         <v>40</v>
@@ -1629,7 +1647,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="78" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1643,10 +1661,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
     </row>
   </sheetData>
@@ -1664,26 +1682,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" customWidth="1"/>
-    <col min="6" max="7" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="7" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:11" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
@@ -1709,7 +1727,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="23">
         <v>10</v>
       </c>
@@ -1734,7 +1752,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>11</v>
       </c>
@@ -1759,7 +1777,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A5" s="23">
         <v>12</v>
       </c>
@@ -1782,7 +1800,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>13</v>
       </c>
@@ -1805,7 +1823,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>14</v>
       </c>
@@ -1828,7 +1846,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>15</v>
       </c>
@@ -1853,7 +1871,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>16</v>
       </c>
@@ -1878,7 +1896,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>17</v>
       </c>
@@ -1903,7 +1921,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>18</v>
       </c>
@@ -1926,7 +1944,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>20</v>
       </c>
@@ -1951,12 +1969,12 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:11" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="38" t="s">
         <v>31</v>
@@ -1971,13 +1989,13 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -1986,13 +2004,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -2001,13 +2019,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -2018,13 +2036,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -2033,13 +2051,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -2050,13 +2068,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -2065,13 +2083,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -2080,13 +2098,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -2095,13 +2113,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -2114,18 +2132,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A13:XFD13"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
@@ -2138,29 +2156,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9D4EE-EF66-4647-A07F-23214E7A01E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2183,7 +2201,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2202,7 +2220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2221,7 +2239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2240,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2259,7 +2277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2278,7 +2296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2297,7 +2315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2316,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2335,7 +2353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2354,7 +2372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2373,7 +2391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2392,23 +2410,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:7" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="38" t="s">
         <v>32</v>
@@ -2425,7 +2443,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>33</v>
@@ -2442,7 +2460,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>61</v>
@@ -2459,7 +2477,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>38</v>
@@ -2476,7 +2494,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>39</v>
@@ -2493,7 +2511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>35</v>
@@ -2510,7 +2528,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>37</v>
@@ -2527,7 +2545,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>36</v>
@@ -2544,7 +2562,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>40</v>
@@ -2561,16 +2579,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2578,11 +2601,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
@@ -2595,29 +2613,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD0DEDB-7184-4D60-B99A-9BCC4CFD825C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="3" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2640,7 +2658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2661,7 +2679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2676,13 +2694,13 @@
         <v>98</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2703,7 +2721,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2722,7 +2740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2741,7 +2759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2762,7 +2780,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2783,7 +2801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2804,7 +2822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2816,7 +2834,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>52</v>
@@ -2825,7 +2843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2844,7 +2862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2863,7 +2881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>21</v>
       </c>
@@ -2882,26 +2900,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:7" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A16" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>32</v>
@@ -2918,7 +2936,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>33</v>
@@ -2935,7 +2953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>61</v>
@@ -2952,7 +2970,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>38</v>
@@ -2969,7 +2987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -2986,7 +3004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>35</v>
@@ -2997,13 +3015,13 @@
         <v>49</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>37</v>
@@ -3020,7 +3038,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>36</v>
@@ -3037,7 +3055,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>40</v>
@@ -3048,15 +3066,15 @@
         <v>48</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="B27" s="38" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="40"/>
@@ -3064,13 +3082,13 @@
         <v>49</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28"/>
     </row>
   </sheetData>
@@ -3100,29 +3118,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB03CE47-C0CE-41ED-B770-BE9613398E6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -3145,7 +3163,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -3166,7 +3184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -3181,13 +3199,13 @@
         <v>98</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -3202,13 +3220,13 @@
         <v>94</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -3227,7 +3245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -3246,7 +3264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -3258,16 +3276,16 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="18" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -3282,13 +3300,13 @@
         <v>99</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -3303,13 +3321,13 @@
         <v>101</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -3321,7 +3339,7 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>74</v>
@@ -3330,7 +3348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -3349,7 +3367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -3368,7 +3386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
         <v>84</v>
@@ -3383,23 +3401,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:7" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>32</v>
@@ -3416,7 +3434,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>33</v>
@@ -3433,7 +3451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>61</v>
@@ -3450,7 +3468,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>38</v>
@@ -3467,7 +3485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>39</v>
@@ -3484,7 +3502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>35</v>
@@ -3495,16 +3513,16 @@
         <v>49</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="40"/>
@@ -3512,13 +3530,13 @@
         <v>49</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>36</v>
@@ -3529,13 +3547,13 @@
         <v>49</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>40</v>
@@ -3546,13 +3564,13 @@
         <v>48</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>87</v>
@@ -3569,9 +3587,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="96" x14ac:dyDescent="0.15">
       <c r="B27" s="38" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="40"/>
@@ -3579,10 +3597,10 @@
         <v>49</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27417"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aaron/Documents/GitHub/Software2project/documents/Deliverable_3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288D1C69-06DC-412C-9180-99468B1104C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="440" windowWidth="22740" windowHeight="15560" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="1872" yWindow="444" windowWidth="22740" windowHeight="15564" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="117">
   <si>
     <t>Story Type</t>
   </si>
@@ -623,11 +624,19 @@
 Riggs:
 Carolyn: X</t>
   </si>
+  <si>
+    <t>Cade:
+Andre:X
+Turner:X
+Mayur:X
+Riggs:
+Carolyn:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -845,14 +854,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1218,31 +1227,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1268,7 +1277,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>10</v>
       </c>
@@ -1291,7 +1300,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>11</v>
       </c>
@@ -1314,7 +1323,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>12</v>
       </c>
@@ -1337,7 +1346,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>13</v>
       </c>
@@ -1360,7 +1369,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>14</v>
       </c>
@@ -1383,7 +1392,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>15</v>
       </c>
@@ -1408,7 +1417,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>16</v>
       </c>
@@ -1433,7 +1442,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>17</v>
       </c>
@@ -1458,7 +1467,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>18</v>
       </c>
@@ -1481,7 +1490,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>19</v>
       </c>
@@ -1504,7 +1513,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>20</v>
       </c>
@@ -1529,12 +1538,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="9" t="s">
         <v>31</v>
@@ -1545,7 +1554,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="78" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
@@ -1562,7 +1571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="78" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
         <v>33</v>
@@ -1579,7 +1588,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="78" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -1596,7 +1605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="78" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
         <v>38</v>
@@ -1613,7 +1622,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="78" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
         <v>39</v>
@@ -1630,7 +1639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="78" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
         <v>40</v>
@@ -1647,7 +1656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="78" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1661,10 +1670,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
     </row>
   </sheetData>
@@ -1682,26 +1691,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="7" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="7" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:11" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
@@ -1727,7 +1736,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="23">
         <v>10</v>
       </c>
@@ -1752,7 +1761,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>11</v>
       </c>
@@ -1777,7 +1786,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>12</v>
       </c>
@@ -1800,7 +1809,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>13</v>
       </c>
@@ -1823,7 +1832,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A7" s="23">
         <v>14</v>
       </c>
@@ -1846,7 +1855,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A8" s="23">
         <v>15</v>
       </c>
@@ -1871,7 +1880,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>16</v>
       </c>
@@ -1896,7 +1905,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>17</v>
       </c>
@@ -1921,7 +1930,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>18</v>
       </c>
@@ -1944,7 +1953,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>20</v>
       </c>
@@ -1969,12 +1978,12 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:11" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="38" t="s">
         <v>31</v>
@@ -1989,13 +1998,13 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -2004,13 +2013,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -2019,13 +2028,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -2036,13 +2045,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -2051,13 +2060,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -2068,13 +2077,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -2083,13 +2092,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -2098,13 +2107,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -2113,13 +2122,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -2132,18 +2141,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
@@ -2156,29 +2165,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2220,7 +2229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2239,7 +2248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2258,7 +2267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2277,7 +2286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2296,7 +2305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2315,7 +2324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2334,7 +2343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2353,7 +2362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2372,7 +2381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2391,7 +2400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2410,23 +2419,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="38" t="s">
         <v>32</v>
@@ -2443,7 +2452,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>33</v>
@@ -2460,7 +2469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>61</v>
@@ -2477,7 +2486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>38</v>
@@ -2494,7 +2503,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>39</v>
@@ -2511,7 +2520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>35</v>
@@ -2528,7 +2537,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>37</v>
@@ -2545,7 +2554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>36</v>
@@ -2562,7 +2571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>40</v>
@@ -2579,21 +2588,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2601,6 +2605,11 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
@@ -2613,29 +2622,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D27"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="3" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2658,7 +2667,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2679,7 +2688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2700,7 +2709,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2721,7 +2730,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2740,7 +2749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2759,7 +2768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2780,7 +2789,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2801,7 +2810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2822,7 +2831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2843,7 +2852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2862,7 +2871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2881,7 +2890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>21</v>
       </c>
@@ -2900,26 +2909,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:7" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>32</v>
@@ -2930,13 +2939,13 @@
         <v>47</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>33</v>
@@ -2953,7 +2962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>61</v>
@@ -2970,7 +2979,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>38</v>
@@ -2987,7 +2996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -3004,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>35</v>
@@ -3021,7 +3030,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>37</v>
@@ -3038,7 +3047,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>36</v>
@@ -3055,7 +3064,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>40</v>
@@ -3072,7 +3081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -3088,7 +3097,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E28"/>
     </row>
   </sheetData>
@@ -3118,29 +3127,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -3163,7 +3172,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -3184,7 +3193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -3205,7 +3214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -3226,7 +3235,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -3245,7 +3254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -3264,7 +3273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -3285,7 +3294,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -3306,7 +3315,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -3327,7 +3336,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -3348,7 +3357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -3367,7 +3376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -3386,7 +3395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
         <v>84</v>
@@ -3401,23 +3410,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>32</v>
@@ -3434,7 +3443,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>33</v>
@@ -3451,7 +3460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>61</v>
@@ -3468,7 +3477,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>38</v>
@@ -3485,7 +3494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>39</v>
@@ -3496,13 +3505,13 @@
         <v>56</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>35</v>
@@ -3519,7 +3528,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
@@ -3536,7 +3545,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>36</v>
@@ -3553,7 +3562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>40</v>
@@ -3570,7 +3579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>87</v>
@@ -3581,13 +3590,13 @@
         <v>49</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="96" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288D1C69-06DC-412C-9180-99468B1104C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948BF399-3841-4493-B460-0F7D9207DAF4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="444" windowWidth="22740" windowHeight="15564" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1872" yWindow="444" windowWidth="22740" windowHeight="15564" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="122">
   <si>
     <t>Story Type</t>
   </si>
@@ -631,6 +631,36 @@
 Mayur:X
 Riggs:
 Carolyn:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a small business owner, I want to be able to set certain parameters so that I can easily view specific data </t>
+  </si>
+  <si>
+    <t>Cade:X
+Andre:X
+Turner:
+Mayur:X
+Riggs:
+Carolyn:</t>
+  </si>
+  <si>
+    <t>Test Plan Document</t>
+  </si>
+  <si>
+    <t>Cade:X
+Andre:X
+Turner:
+Mayur:X
+Riggs:X
+Carolyn:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cade:X
+Andre:X
+Turner:
+Mayur:X
+Riggs:X
+Carolyn: </t>
   </si>
 </sst>
 </file>
@@ -854,14 +884,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1705,8 +1735,8 @@
     <col min="6" max="7" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:11" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1978,8 +2008,8 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:11" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2000,11 +2030,11 @@
     </row>
     <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -2015,11 +2045,11 @@
     </row>
     <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -2030,11 +2060,11 @@
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -2047,11 +2077,11 @@
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -2062,11 +2092,11 @@
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -2079,11 +2109,11 @@
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -2094,11 +2124,11 @@
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -2109,11 +2139,11 @@
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -2124,11 +2154,11 @@
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -2141,18 +2171,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A13:XFD13"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
@@ -2168,7 +2198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -2182,8 +2212,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2419,21 +2449,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
@@ -2598,6 +2628,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2605,11 +2640,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
@@ -2625,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2639,8 +2669,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2912,21 +2942,21 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
@@ -3128,10 +3158,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3144,8 +3174,8 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3341,7 +3371,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>3</v>
@@ -3410,21 +3440,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
@@ -3593,7 +3623,7 @@
         <v>45</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
@@ -3612,8 +3642,25 @@
         <v>115</v>
       </c>
     </row>
+    <row r="28" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="B28" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B25:D25"/>

--- a/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
+++ b/documents/Deliverable_3/FlyingMongeese_Deliverable_3_SprintBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayur Bhakta\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cadew\OneDrive\Documents\GitHub\Software2project\documents\Deliverable_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948BF399-3841-4493-B460-0F7D9207DAF4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF31828-4947-4769-B425-94F0B689A0CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="444" windowWidth="22740" windowHeight="15564" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="450" windowWidth="22740" windowHeight="15570" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SprintBacklog1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="123">
   <si>
     <t>Story Type</t>
   </si>
@@ -661,6 +661,14 @@
 Mayur:X
 Riggs:X
 Carolyn: </t>
+  </si>
+  <si>
+    <t>Cade:X
+Andre:
+Turner:X
+Mayur:X
+Riggs:
+Carolyn:</t>
   </si>
 </sst>
 </file>
@@ -884,14 +892,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1264,24 +1272,24 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1307,7 +1315,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>10</v>
       </c>
@@ -1330,7 +1338,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>11</v>
       </c>
@@ -1353,7 +1361,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>12</v>
       </c>
@@ -1376,7 +1384,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>13</v>
       </c>
@@ -1399,7 +1407,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>14</v>
       </c>
@@ -1422,7 +1430,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>15</v>
       </c>
@@ -1447,7 +1455,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>16</v>
       </c>
@@ -1472,7 +1480,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>17</v>
       </c>
@@ -1497,7 +1505,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>18</v>
       </c>
@@ -1520,7 +1528,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>19</v>
       </c>
@@ -1543,7 +1551,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>20</v>
       </c>
@@ -1568,12 +1576,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="9" t="s">
         <v>31</v>
@@ -1584,7 +1592,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
         <v>32</v>
@@ -1601,7 +1609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
         <v>33</v>
@@ -1618,7 +1626,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -1635,7 +1643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
         <v>38</v>
@@ -1652,7 +1660,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
         <v>39</v>
@@ -1669,7 +1677,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
         <v>40</v>
@@ -1686,7 +1694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1700,10 +1708,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
     </row>
   </sheetData>
@@ -1728,19 +1736,19 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="7" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:11" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
@@ -1766,7 +1774,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>10</v>
       </c>
@@ -1791,7 +1799,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>11</v>
       </c>
@@ -1816,7 +1824,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>12</v>
       </c>
@@ -1839,7 +1847,7 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>13</v>
       </c>
@@ -1862,7 +1870,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>14</v>
       </c>
@@ -1885,7 +1893,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>15</v>
       </c>
@@ -1910,7 +1918,7 @@
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>16</v>
       </c>
@@ -1935,7 +1943,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>17</v>
       </c>
@@ -1960,7 +1968,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>18</v>
       </c>
@@ -1983,7 +1991,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>20</v>
       </c>
@@ -2008,12 +2016,12 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:11" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="38" t="s">
         <v>31</v>
@@ -2028,13 +2036,13 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="23"/>
       <c r="F15" s="26" t="s">
         <v>75</v>
@@ -2043,13 +2051,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="23"/>
       <c r="F16" s="26" t="s">
         <v>4</v>
@@ -2058,13 +2066,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
@@ -2075,13 +2083,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="23"/>
       <c r="F18" s="26" t="s">
         <v>4</v>
@@ -2090,13 +2098,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="27" t="s">
         <v>44</v>
       </c>
@@ -2107,13 +2115,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="23"/>
       <c r="F20" s="26" t="s">
         <v>4</v>
@@ -2122,13 +2130,13 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="23"/>
       <c r="F21" s="26" t="s">
         <v>4</v>
@@ -2137,13 +2145,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="23"/>
       <c r="F22" s="26" t="s">
         <v>4</v>
@@ -2152,13 +2160,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="23" t="s">
         <v>48</v>
       </c>
@@ -2171,18 +2179,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B14:G14"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
@@ -2202,22 +2210,22 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2240,7 +2248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2259,7 +2267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2278,7 +2286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2297,7 +2305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2316,7 +2324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2335,7 +2343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2354,7 +2362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2373,7 +2381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2392,7 +2400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2411,7 +2419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2430,7 +2438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2449,23 +2457,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="38" t="s">
         <v>32</v>
@@ -2482,7 +2490,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>33</v>
@@ -2499,7 +2507,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>61</v>
@@ -2516,7 +2524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>38</v>
@@ -2533,7 +2541,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>39</v>
@@ -2550,7 +2558,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>35</v>
@@ -2567,7 +2575,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>37</v>
@@ -2584,7 +2592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>36</v>
@@ -2601,7 +2609,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>40</v>
@@ -2618,21 +2626,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B24:D24"/>
@@ -2640,6 +2643,11 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
@@ -2655,26 +2663,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="3" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2697,7 +2705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -2718,7 +2726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -2739,7 +2747,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -2760,7 +2768,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -2779,7 +2787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -2798,7 +2806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -2819,7 +2827,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -2840,7 +2848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -2861,7 +2869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -2882,7 +2890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -2901,7 +2909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -2920,7 +2928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>21</v>
       </c>
@@ -2939,26 +2947,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>32</v>
@@ -2975,7 +2983,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>33</v>
@@ -2986,13 +2994,13 @@
         <v>47</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>61</v>
@@ -3009,7 +3017,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>38</v>
@@ -3026,7 +3034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>39</v>
@@ -3043,7 +3051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>35</v>
@@ -3060,7 +3068,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>37</v>
@@ -3077,7 +3085,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>36</v>
@@ -3094,7 +3102,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>40</v>
@@ -3111,7 +3119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -3127,7 +3135,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E28"/>
     </row>
   </sheetData>
@@ -3160,26 +3168,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -3202,7 +3210,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>10</v>
       </c>
@@ -3223,7 +3231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>11</v>
       </c>
@@ -3244,7 +3252,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>12</v>
       </c>
@@ -3265,7 +3273,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>13</v>
       </c>
@@ -3284,7 +3292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>14</v>
       </c>
@@ -3303,7 +3311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>15</v>
       </c>
@@ -3324,7 +3332,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>16</v>
       </c>
@@ -3345,7 +3353,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>17</v>
       </c>
@@ -3366,7 +3374,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>18</v>
       </c>
@@ -3387,7 +3395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>19</v>
       </c>
@@ -3406,7 +3414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>20</v>
       </c>
@@ -3425,7 +3433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="30" t="s">
         <v>84</v>
@@ -3440,23 +3448,23 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="38" t="s">
         <v>32</v>
@@ -3470,10 +3478,10 @@
         <v>91</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="38" t="s">
         <v>33</v>
@@ -3490,7 +3498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="38" t="s">
         <v>61</v>
@@ -3507,7 +3515,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="38" t="s">
         <v>38</v>
@@ -3521,10 +3529,10 @@
         <v>43</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="38" t="s">
         <v>39</v>
@@ -3535,13 +3543,13 @@
         <v>56</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="38" t="s">
         <v>35</v>
@@ -3558,7 +3566,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="38" t="s">
         <v>71</v>
@@ -3575,7 +3583,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="38" t="s">
         <v>36</v>
@@ -3592,7 +3600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="38" t="s">
         <v>40</v>
@@ -3609,7 +3617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="38" t="s">
         <v>87</v>
@@ -3626,7 +3634,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
       <c r="B27" s="38" t="s">
         <v>114</v>
       </c>
@@ -3642,7 +3650,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="94.5" x14ac:dyDescent="0.2">
       <c r="B28" s="38" t="s">
         <v>119</v>
       </c>
